--- a/doc/suizou/02 需求/智库人才/2.13测试结果.xlsx
+++ b/doc/suizou/02 需求/智库人才/2.13测试结果.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目\智库人才\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目文档\02 需求\智库人才\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="67">
   <si>
     <t xml:space="preserve">1.登陆成功后右上角的电话号码中间5位用*号  </t>
   </si>
@@ -262,11 +262,15 @@
     <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>未发现问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -312,7 +316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,6 +328,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -343,7 +350,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -605,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -618,7 +625,7 @@
     <col min="3" max="3" width="69.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>44</v>
       </c>
@@ -626,7 +633,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -636,8 +643,11 @@
       <c r="D2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -647,8 +657,15 @@
       <c r="D3" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -659,7 +676,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -673,7 +690,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -687,7 +704,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -701,7 +718,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -712,7 +729,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -723,7 +740,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -737,7 +754,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -751,7 +768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -765,7 +782,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -779,7 +796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -793,7 +810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -807,7 +824,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1171,6 +1188,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D42">

--- a/doc/suizou/02 需求/智库人才/2.13测试结果.xlsx
+++ b/doc/suizou/02 需求/智库人才/2.13测试结果.xlsx
@@ -615,14 +615,14 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="69.75" customWidth="1"/>
+    <col min="3" max="3" width="88" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -675,6 +675,9 @@
       <c r="D4" t="s">
         <v>48</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -703,6 +706,9 @@
       <c r="D6" t="s">
         <v>48</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -717,6 +723,9 @@
       <c r="D7" t="s">
         <v>48</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -727,6 +736,9 @@
       </c>
       <c r="D8" t="s">
         <v>46</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">

--- a/doc/suizou/02 需求/智库人才/2.13测试结果.xlsx
+++ b/doc/suizou/02 需求/智库人才/2.13测试结果.xlsx
@@ -316,7 +316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -330,6 +330,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,20 +615,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="88" customWidth="1"/>
+    <col min="3" max="3" width="113.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>44</v>
       </c>
@@ -633,7 +636,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -647,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -665,7 +668,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -679,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -693,7 +696,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -710,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -727,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -741,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -751,8 +754,11 @@
       <c r="D9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -766,7 +772,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -780,7 +786,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -794,7 +800,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -807,8 +813,21 @@
       <c r="D13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -821,8 +840,11 @@
       <c r="D14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -835,8 +857,11 @@
       <c r="D15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -849,8 +874,11 @@
       <c r="D16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -864,7 +892,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -877,8 +905,11 @@
       <c r="D18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -891,8 +922,11 @@
       <c r="D19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -905,8 +939,11 @@
       <c r="D20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -920,7 +957,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -930,8 +967,11 @@
       <c r="D22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -944,8 +984,11 @@
       <c r="D23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -958,8 +1001,11 @@
       <c r="D24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -972,8 +1018,11 @@
       <c r="D25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -986,8 +1035,11 @@
       <c r="D26" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1000,8 +1052,11 @@
       <c r="D27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1015,7 +1070,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1029,7 +1084,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1043,7 +1098,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1057,7 +1112,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1066,6 +1121,9 @@
       </c>
       <c r="D32" t="s">
         <v>46</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -1200,8 +1258,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F13:O13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/doc/suizou/02 需求/智库人才/2.13测试结果.xlsx
+++ b/doc/suizou/02 需求/智库人才/2.13测试结果.xlsx
@@ -93,12 +93,6 @@
     <t>5.经纪人注册，同一个号码，可以注册企业经纪人和人才经纪人（判断号码重复的机制需要改变）</t>
   </si>
   <si>
-    <t>6.简历搜索，选择薪水要求时，应该查询出所有大于等于选择条件的简历</t>
-  </si>
-  <si>
-    <t>7.简历搜索，选择工作经验时候，应该查询出所有小于等于选定值的简历</t>
-  </si>
-  <si>
     <t>企业</t>
   </si>
   <si>
@@ -264,6 +258,14 @@
   </si>
   <si>
     <t>未发现问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.简历搜索，选择薪水要求时，应该查询出所有大于等于选择条件的简历(&lt;=)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.简历搜索，选择工作经验时候，应该查询出所有小于等于选定值的简历(&gt;=)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -630,21 +632,21 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -652,31 +654,31 @@
     </row>
     <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -684,30 +686,30 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -715,16 +717,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -732,13 +734,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -746,13 +748,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -760,58 +762,58 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -829,16 +831,16 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -846,16 +848,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -863,16 +865,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -880,30 +882,30 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -911,16 +913,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -928,16 +930,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -945,27 +947,27 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -973,16 +975,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -990,16 +992,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1010,13 +1012,13 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1027,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1044,13 +1046,13 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1061,13 +1063,16 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -1075,13 +1080,16 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -1089,13 +1097,16 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -1103,13 +1114,16 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -1117,144 +1131,165 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" t="s">
         <v>46</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
         <v>24</v>
       </c>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
         <v>25</v>
       </c>
-      <c r="D33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>26</v>
       </c>
-      <c r="D35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
         <v>53</v>
       </c>
-      <c r="D36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>28</v>
       </c>
-      <c r="C38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+      <c r="C40" t="s">
         <v>30</v>
       </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
         <v>31</v>
       </c>
-      <c r="D39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
         <v>32</v>
       </c>
-      <c r="D40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" t="s">
-        <v>34</v>
-      </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1291,24 +1326,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="135" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/doc/suizou/02 需求/智库人才/2.13测试结果.xlsx
+++ b/doc/suizou/02 需求/智库人才/2.13测试结果.xlsx
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -697,6 +697,9 @@
       <c r="D5" t="s">
         <v>44</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -786,6 +789,9 @@
       </c>
       <c r="D11" t="s">
         <v>44</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
@@ -1153,6 +1159,9 @@
       <c r="D33" t="s">
         <v>44</v>
       </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
@@ -1233,6 +1242,9 @@
       </c>
       <c r="D39" t="s">
         <v>44</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">

--- a/doc/suizou/02 需求/智库人才/2.13测试结果.xlsx
+++ b/doc/suizou/02 需求/智库人才/2.13测试结果.xlsx
@@ -430,6 +430,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -465,6 +482,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -620,7 +654,7 @@
   <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -776,6 +810,9 @@
       <c r="D10" t="s">
         <v>46</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -806,6 +843,9 @@
       </c>
       <c r="D12" t="s">
         <v>46</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
@@ -963,6 +1003,9 @@
       </c>
       <c r="D21" t="s">
         <v>44</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
